--- a/spliced/falling/2023-03-25_18-04-08/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-08/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0019853119738399</v>
+        <v>-0.0018325957935303</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.0296269636601209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0200058370828628</v>
+        <v>-0.0087048299610614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0106901414692401</v>
+        <v>0.0019853119738399</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08765916526317589</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0525344125926494</v>
+        <v>0.0200058370828628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0532979927957057</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3320052623748779</v>
+        <v>0.08765916526317589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1557706445455551</v>
+        <v>0.0525344125926494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1586722433567047</v>
+        <v>-0.0532979927957057</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3882048726081848</v>
+        <v>0.3320052623748779</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0940732508897781</v>
+        <v>0.1557706445455551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2698497176170349</v>
+        <v>-0.1586722433567047</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6501133441925049</v>
+        <v>0.3882048726081848</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4689917862415313</v>
+        <v>-0.0940732508897781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0048869219608604</v>
+        <v>-0.2698497176170349</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8135197758674622</v>
+        <v>0.6501133441925049</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.29075825214386</v>
+        <v>-0.4689917862415313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8275696635246277</v>
+        <v>0.0048869219608604</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.131614208221436</v>
+        <v>0.8135197758674622</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.630385637283325</v>
+        <v>-1.29075825214386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.503492116928101</v>
+        <v>0.8275696635246277</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.445571899414063</v>
+        <v>-2.131614208221436</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.242486238479614</v>
+        <v>-2.630385637283325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.950034618377685</v>
+        <v>1.503492116928101</v>
       </c>
       <c r="B10" t="n">
-        <v>3.770718336105346</v>
+        <v>-4.445571899414063</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2194533348083496</v>
+        <v>-2.242486238479614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.251442432403564</v>
+        <v>-1.950034618377685</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.222022294998169</v>
+        <v>3.770718336105346</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.614794969558716</v>
+        <v>0.2194533348083496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8747590184211731</v>
+        <v>6.251442432403564</v>
       </c>
       <c r="B12" t="n">
-        <v>2.045024156570435</v>
+        <v>-2.222022294998169</v>
       </c>
       <c r="C12" t="n">
-        <v>1.580461144447327</v>
+        <v>-3.614794969558716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0520762614905834</v>
+        <v>0.8747590184211731</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.5412266254425049</v>
+        <v>2.045024156570435</v>
       </c>
       <c r="C13" t="n">
-        <v>0.422871470451355</v>
+        <v>1.580461144447327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2570215463638305</v>
+        <v>-0.0520762614905834</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.184691429138184</v>
+        <v>-0.5412266254425049</v>
       </c>
       <c r="C14" t="n">
-        <v>2.630538463592529</v>
+        <v>0.422871470451355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.87503719329834</v>
+        <v>-0.2570215463638305</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.23394775390625</v>
+        <v>-7.184691429138184</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1574505120515823</v>
+        <v>2.630538463592529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.157145082950592</v>
+        <v>2.87503719329834</v>
       </c>
       <c r="B16" t="n">
-        <v>1.678810358047485</v>
+        <v>-1.23394775390625</v>
       </c>
       <c r="C16" t="n">
-        <v>1.309847831726074</v>
+        <v>-0.1574505120515823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.982424020767212</v>
+        <v>-0.157145082950592</v>
       </c>
       <c r="B17" t="n">
-        <v>1.2322678565979</v>
+        <v>1.678810358047485</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3689626157283783</v>
+        <v>1.309847831726074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0326812900602817</v>
+        <v>0.982424020767212</v>
       </c>
       <c r="B18" t="n">
-        <v>0.007177666760981</v>
+        <v>1.2322678565979</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1241583600640297</v>
+        <v>-0.3689626157283783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.00167987938039</v>
+        <v>0.0326812900602817</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0308486949652433</v>
+        <v>0.007177666760981</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0305432621389627</v>
+        <v>-0.1241583600640297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.012980886735022</v>
+        <v>-0.00167987938039</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.06704246252775189</v>
+        <v>0.0308486949652433</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0529925599694252</v>
+        <v>0.0305432621389627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0004581489483825</v>
+        <v>0.012980886735022</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0694859251379966</v>
+        <v>-0.06704246252775189</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.005192354787141</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.015118914656341</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0235183127224445</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.047036625444889</v>
+        <v>-0.0529925599694252</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-04-08/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-08/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0018325957935303</v>
+        <v>0.0216857157647609</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0296269636601209</v>
+        <v>-0.0339030213654041</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0087048299610614</v>
+        <v>0.0201585534960031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0019853119738399</v>
+        <v>-0.0120645882561802</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.0719293802976608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0200058370828628</v>
+        <v>0.0242818929255008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0106901414692401</v>
+        <v>0.0125227374956011</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08765916526317589</v>
+        <v>-0.0106901414692401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0525344125926494</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0532979927957057</v>
+        <v>-0.0018325957935303</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3320052623748779</v>
+        <v>-0.0296269636601209</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1557706445455551</v>
+        <v>-0.0087048299610614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1586722433567047</v>
+        <v>0.0019853119738399</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3882048726081848</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0940732508897781</v>
+        <v>0.0200058370828628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2698497176170349</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6501133441925049</v>
+        <v>0.08765916526317589</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4689917862415313</v>
+        <v>0.0525344125926494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0048869219608604</v>
+        <v>-0.0532979927957057</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8135197758674622</v>
+        <v>0.3320052623748779</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.29075825214386</v>
+        <v>0.1557706445455551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8275696635246277</v>
+        <v>-0.1586722433567047</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.131614208221436</v>
+        <v>0.3882048726081848</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.630385637283325</v>
+        <v>-0.0940732508897781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.503492116928101</v>
+        <v>-0.2698497176170349</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.445571899414063</v>
+        <v>0.6501133441925049</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.242486238479614</v>
+        <v>-0.4689917862415313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.950034618377685</v>
+        <v>0.0048869219608604</v>
       </c>
       <c r="B11" t="n">
-        <v>3.770718336105346</v>
+        <v>0.8135197758674622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2194533348083496</v>
+        <v>-1.29075825214386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.251442432403564</v>
+        <v>0.8275696635246277</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.222022294998169</v>
+        <v>-2.131614208221436</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.614794969558716</v>
+        <v>-2.630385637283325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8747590184211731</v>
+        <v>1.503492116928101</v>
       </c>
       <c r="B13" t="n">
-        <v>2.045024156570435</v>
+        <v>-4.445571899414063</v>
       </c>
       <c r="C13" t="n">
-        <v>1.580461144447327</v>
+        <v>-2.242486238479614</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0520762614905834</v>
+        <v>-1.950034618377685</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5412266254425049</v>
+        <v>3.770718336105346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.422871470451355</v>
+        <v>0.2194533348083496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2570215463638305</v>
+        <v>6.251442432403564</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.184691429138184</v>
+        <v>-2.222022294998169</v>
       </c>
       <c r="C15" t="n">
-        <v>2.630538463592529</v>
+        <v>-3.614794969558716</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.87503719329834</v>
+        <v>0.8747590184211731</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.23394775390625</v>
+        <v>2.045024156570435</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1574505120515823</v>
+        <v>1.580461144447327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.157145082950592</v>
+        <v>-0.0520762614905834</v>
       </c>
       <c r="B17" t="n">
-        <v>1.678810358047485</v>
+        <v>-0.5412266254425049</v>
       </c>
       <c r="C17" t="n">
-        <v>1.309847831726074</v>
+        <v>0.422871470451355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.982424020767212</v>
+        <v>-0.2570215463638305</v>
       </c>
       <c r="B18" t="n">
-        <v>1.2322678565979</v>
+        <v>-7.184691429138184</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3689626157283783</v>
+        <v>2.630538463592529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0326812900602817</v>
+        <v>2.87503719329834</v>
       </c>
       <c r="B19" t="n">
-        <v>0.007177666760981</v>
+        <v>-1.23394775390625</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1241583600640297</v>
+        <v>-0.1574505120515823</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.00167987938039</v>
+        <v>-0.157145082950592</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0308486949652433</v>
+        <v>1.678810358047485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0305432621389627</v>
+        <v>1.309847831726074</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.982424020767212</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.2322678565979</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3689626157283783</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.0326812900602817</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.007177666760981</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1241583600640297</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.00167987938039</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0308486949652433</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0305432621389627</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.012980886735022</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-0.06704246252775189</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.0529925599694252</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0004581489483825</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.0694859251379966</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.005192354787141</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.015118914656341</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0235183127224445</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.047036625444889</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0102319931611418</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0080939643085002</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0006108652451075</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0326812900602817</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0154243474826216</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0415388382971286</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0032070425804704</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0175623763352632</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0198531206697225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0097738439217209</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0273362193256616</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.0233655963093042</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0073303831741213</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0030543261673301</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0368046313524246</v>
       </c>
     </row>
   </sheetData>
